--- a/public/template_afirmasi.xlsx
+++ b/public/template_afirmasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\apm-smk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E458CC24-DCF1-420E-9A5C-42C34FB0CB52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57F9CB7-21DF-4CE0-A8D0-ECFD65D6F016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{6EDF0E48-1308-4AD9-988D-0816ECD04F51}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="95">
   <si>
     <t>Penyelarasan Kurikulum</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Dokumen hasil kegiatan Penilaian Hasil Belajar Berbasis Produksi, dan Dual Based Learning</t>
   </si>
   <si>
-    <t>analisis bahan ajar</t>
-  </si>
-  <si>
     <t>contoh bahan ajar</t>
   </si>
   <si>
@@ -307,6 +304,15 @@
   </si>
   <si>
     <t>poin</t>
+  </si>
+  <si>
+    <t>Notulen Kegiatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analisis bahan ajar </t>
+  </si>
+  <si>
+    <t>Analisis bahan ajar</t>
   </si>
 </sst>
 </file>
@@ -661,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7094E313-59E2-4D2A-87BD-AA605FED7B89}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C65" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90:D97"/>
+    <sheetView tabSelected="1" topLeftCell="C26" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,22 +682,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>91</v>
-      </c>
-      <c r="F1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1308,7 +1314,7 @@
         <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1388,7 +1394,7 @@
         <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1408,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1416,22 +1422,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1445,10 +1448,10 @@
         <v>38</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1465,10 +1468,10 @@
         <v>38</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1485,10 +1488,10 @@
         <v>38</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1505,10 +1508,10 @@
         <v>38</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1525,10 +1528,10 @@
         <v>38</v>
       </c>
       <c r="D43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1536,13 +1539,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
         <v>41</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>42</v>
-      </c>
-      <c r="C44" t="s">
-        <v>43</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1556,13 +1559,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
         <v>41</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>42</v>
-      </c>
-      <c r="C45" t="s">
-        <v>43</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -1576,13 +1579,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" t="s">
         <v>41</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>42</v>
-      </c>
-      <c r="C46" t="s">
-        <v>43</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -1596,13 +1599,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" t="s">
         <v>41</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>42</v>
-      </c>
-      <c r="C47" t="s">
-        <v>43</v>
       </c>
       <c r="D47">
         <v>4</v>
@@ -1616,19 +1619,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" t="s">
         <v>41</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>42</v>
-      </c>
-      <c r="C48" t="s">
-        <v>43</v>
       </c>
       <c r="D48">
         <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -1636,19 +1639,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
         <v>41</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>42</v>
-      </c>
-      <c r="C49" t="s">
-        <v>43</v>
       </c>
       <c r="D49">
         <v>6</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1656,19 +1659,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
         <v>41</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>42</v>
-      </c>
-      <c r="C50" t="s">
-        <v>43</v>
       </c>
       <c r="D50">
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -1676,19 +1679,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" t="s">
         <v>41</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>42</v>
-      </c>
-      <c r="C51" t="s">
-        <v>43</v>
       </c>
       <c r="D51">
         <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -1696,19 +1699,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" t="s">
         <v>41</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>42</v>
-      </c>
-      <c r="C52" t="s">
-        <v>43</v>
       </c>
       <c r="D52">
         <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -1716,19 +1719,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" t="s">
         <v>41</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>42</v>
-      </c>
-      <c r="C53" t="s">
-        <v>43</v>
       </c>
       <c r="D53">
         <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -1736,13 +1739,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
         <v>50</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>51</v>
-      </c>
-      <c r="C54" t="s">
-        <v>52</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -1756,13 +1759,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" t="s">
         <v>50</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>51</v>
-      </c>
-      <c r="C55" t="s">
-        <v>52</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -1776,13 +1779,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" t="s">
         <v>50</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>51</v>
-      </c>
-      <c r="C56" t="s">
-        <v>52</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -1796,13 +1799,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" t="s">
         <v>50</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>51</v>
-      </c>
-      <c r="C57" t="s">
-        <v>52</v>
       </c>
       <c r="D57">
         <v>4</v>
@@ -1816,19 +1819,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" t="s">
         <v>50</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>51</v>
-      </c>
-      <c r="C58" t="s">
-        <v>52</v>
       </c>
       <c r="D58">
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -1836,19 +1839,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" t="s">
         <v>50</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>51</v>
-      </c>
-      <c r="C59" t="s">
-        <v>52</v>
       </c>
       <c r="D59">
         <v>6</v>
       </c>
       <c r="E59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1856,19 +1859,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" t="s">
         <v>50</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>51</v>
-      </c>
-      <c r="C60" t="s">
-        <v>52</v>
       </c>
       <c r="D60">
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -1876,19 +1879,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" t="s">
         <v>50</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>51</v>
-      </c>
-      <c r="C61" t="s">
-        <v>52</v>
       </c>
       <c r="D61">
         <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -1896,19 +1899,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" t="s">
         <v>50</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>51</v>
-      </c>
-      <c r="C62" t="s">
-        <v>52</v>
       </c>
       <c r="D62">
         <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -1916,19 +1919,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" t="s">
         <v>50</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>51</v>
-      </c>
-      <c r="C63" t="s">
-        <v>52</v>
       </c>
       <c r="D63">
         <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -1936,13 +1939,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" t="s">
         <v>59</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>60</v>
-      </c>
-      <c r="C64" t="s">
-        <v>61</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -1956,13 +1959,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" t="s">
         <v>59</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>60</v>
-      </c>
-      <c r="C65" t="s">
-        <v>61</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -1976,13 +1979,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>58</v>
+      </c>
+      <c r="B66" t="s">
         <v>59</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>60</v>
-      </c>
-      <c r="C66" t="s">
-        <v>61</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -1996,13 +1999,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" t="s">
         <v>59</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>60</v>
-      </c>
-      <c r="C67" t="s">
-        <v>61</v>
       </c>
       <c r="D67">
         <v>4</v>
@@ -2016,19 +2019,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" t="s">
         <v>59</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>60</v>
-      </c>
-      <c r="C68" t="s">
-        <v>61</v>
       </c>
       <c r="D68">
         <v>5</v>
       </c>
       <c r="E68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2036,19 +2039,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" t="s">
         <v>59</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>60</v>
-      </c>
-      <c r="C69" t="s">
-        <v>61</v>
       </c>
       <c r="D69">
         <v>6</v>
       </c>
       <c r="E69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -2056,19 +2059,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" t="s">
         <v>59</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>60</v>
-      </c>
-      <c r="C70" t="s">
-        <v>61</v>
       </c>
       <c r="D70">
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -2076,13 +2079,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" t="s">
         <v>65</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>66</v>
-      </c>
-      <c r="C71" t="s">
-        <v>67</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -2096,13 +2099,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" t="s">
         <v>65</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>66</v>
-      </c>
-      <c r="C72" t="s">
-        <v>67</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -2116,13 +2119,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" t="s">
         <v>65</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>66</v>
-      </c>
-      <c r="C73" t="s">
-        <v>67</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -2136,13 +2139,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>64</v>
+      </c>
+      <c r="B74" t="s">
         <v>65</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>66</v>
-      </c>
-      <c r="C74" t="s">
-        <v>67</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -2156,19 +2159,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" t="s">
         <v>65</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>66</v>
-      </c>
-      <c r="C75" t="s">
-        <v>67</v>
       </c>
       <c r="D75">
         <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -2176,19 +2179,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>64</v>
+      </c>
+      <c r="B76" t="s">
         <v>65</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>66</v>
-      </c>
-      <c r="C76" t="s">
-        <v>67</v>
       </c>
       <c r="D76">
         <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2196,19 +2199,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>64</v>
+      </c>
+      <c r="B77" t="s">
         <v>65</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>66</v>
-      </c>
-      <c r="C77" t="s">
-        <v>67</v>
       </c>
       <c r="D77">
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -2216,19 +2219,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>64</v>
+      </c>
+      <c r="B78" t="s">
         <v>65</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>66</v>
-      </c>
-      <c r="C78" t="s">
-        <v>67</v>
       </c>
       <c r="D78">
         <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -2236,19 +2239,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>64</v>
+      </c>
+      <c r="B79" t="s">
         <v>65</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>66</v>
-      </c>
-      <c r="C79" t="s">
-        <v>67</v>
       </c>
       <c r="D79">
         <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -2256,19 +2259,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" t="s">
         <v>65</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>66</v>
-      </c>
-      <c r="C80" t="s">
-        <v>67</v>
       </c>
       <c r="D80">
         <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -2276,13 +2279,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81" t="s">
         <v>74</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>75</v>
-      </c>
-      <c r="C81" t="s">
-        <v>76</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -2296,13 +2299,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>73</v>
+      </c>
+      <c r="B82" t="s">
         <v>74</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>75</v>
-      </c>
-      <c r="C82" t="s">
-        <v>76</v>
       </c>
       <c r="D82">
         <v>2</v>
@@ -2316,13 +2319,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>73</v>
+      </c>
+      <c r="B83" t="s">
         <v>74</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>75</v>
-      </c>
-      <c r="C83" t="s">
-        <v>76</v>
       </c>
       <c r="D83">
         <v>3</v>
@@ -2336,13 +2339,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>73</v>
+      </c>
+      <c r="B84" t="s">
         <v>74</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>75</v>
-      </c>
-      <c r="C84" t="s">
-        <v>76</v>
       </c>
       <c r="D84">
         <v>4</v>
@@ -2356,19 +2359,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>73</v>
+      </c>
+      <c r="B85" t="s">
         <v>74</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>75</v>
-      </c>
-      <c r="C85" t="s">
-        <v>76</v>
       </c>
       <c r="D85">
         <v>5</v>
       </c>
       <c r="E85" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -2376,19 +2379,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>73</v>
+      </c>
+      <c r="B86" t="s">
         <v>74</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>75</v>
-      </c>
-      <c r="C86" t="s">
-        <v>76</v>
       </c>
       <c r="D86">
         <v>6</v>
       </c>
       <c r="E86" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2396,19 +2399,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>73</v>
+      </c>
+      <c r="B87" t="s">
         <v>74</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>75</v>
-      </c>
-      <c r="C87" t="s">
-        <v>76</v>
       </c>
       <c r="D87">
         <v>7</v>
       </c>
       <c r="E87" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -2416,19 +2419,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>73</v>
+      </c>
+      <c r="B88" t="s">
         <v>74</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>75</v>
-      </c>
-      <c r="C88" t="s">
-        <v>76</v>
       </c>
       <c r="D88">
         <v>8</v>
       </c>
       <c r="E88" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -2436,19 +2439,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>73</v>
+      </c>
+      <c r="B89" t="s">
         <v>74</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>75</v>
-      </c>
-      <c r="C89" t="s">
-        <v>76</v>
       </c>
       <c r="D89">
         <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -2456,13 +2459,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>79</v>
+      </c>
+      <c r="B90" t="s">
         <v>80</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>81</v>
-      </c>
-      <c r="C90" t="s">
-        <v>82</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -2476,13 +2479,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>79</v>
+      </c>
+      <c r="B91" t="s">
         <v>80</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>81</v>
-      </c>
-      <c r="C91" t="s">
-        <v>82</v>
       </c>
       <c r="D91">
         <v>2</v>
@@ -2496,13 +2499,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>79</v>
+      </c>
+      <c r="B92" t="s">
         <v>80</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>81</v>
-      </c>
-      <c r="C92" t="s">
-        <v>82</v>
       </c>
       <c r="D92">
         <v>3</v>
@@ -2516,13 +2519,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>79</v>
+      </c>
+      <c r="B93" t="s">
         <v>80</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>81</v>
-      </c>
-      <c r="C93" t="s">
-        <v>82</v>
       </c>
       <c r="D93">
         <v>4</v>
@@ -2536,19 +2539,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>79</v>
+      </c>
+      <c r="B94" t="s">
         <v>80</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>81</v>
-      </c>
-      <c r="C94" t="s">
-        <v>82</v>
       </c>
       <c r="D94">
         <v>5</v>
       </c>
       <c r="E94" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -2556,19 +2559,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>79</v>
+      </c>
+      <c r="B95" t="s">
         <v>80</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>81</v>
-      </c>
-      <c r="C95" t="s">
-        <v>82</v>
       </c>
       <c r="D95">
         <v>6</v>
       </c>
       <c r="E95" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -2576,19 +2579,19 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>79</v>
+      </c>
+      <c r="B96" t="s">
         <v>80</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>81</v>
-      </c>
-      <c r="C96" t="s">
-        <v>82</v>
       </c>
       <c r="D96">
         <v>7</v>
       </c>
       <c r="E96" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -2596,19 +2599,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>79</v>
+      </c>
+      <c r="B97" t="s">
         <v>80</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>81</v>
-      </c>
-      <c r="C97" t="s">
-        <v>82</v>
       </c>
       <c r="D97">
         <v>8</v>
       </c>
       <c r="E97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F97">
         <v>1</v>

--- a/public/template_afirmasi.xlsx
+++ b/public/template_afirmasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\apm-smk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57F9CB7-21DF-4CE0-A8D0-ECFD65D6F016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DC4504-3DA5-4ADC-8560-31F360191D79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{6EDF0E48-1308-4AD9-988D-0816ECD04F51}"/>
   </bookViews>
@@ -147,9 +147,6 @@
     <t>Dokumen hasil kegiatan Penilaian Hasil Belajar Berbasis Produksi, dan Dual Based Learning</t>
   </si>
   <si>
-    <t>contoh bahan ajar</t>
-  </si>
-  <si>
     <t>Magang dan Sertifikasi Guru</t>
   </si>
   <si>
@@ -313,6 +310,9 @@
   </si>
   <si>
     <t>Analisis bahan ajar</t>
+  </si>
+  <si>
+    <t>Contoh bahan ajar</t>
   </si>
 </sst>
 </file>
@@ -668,7 +668,7 @@
   <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C26" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,22 +682,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
         <v>87</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>90</v>
-      </c>
-      <c r="F1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1394,7 +1394,7 @@
         <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1414,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1434,7 +1434,10 @@
         <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>94</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1531,7 +1534,7 @@
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1539,13 +1542,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
         <v>40</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>41</v>
-      </c>
-      <c r="C44" t="s">
-        <v>42</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1559,13 +1562,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
         <v>40</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>41</v>
-      </c>
-      <c r="C45" t="s">
-        <v>42</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -1579,13 +1582,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
         <v>40</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>41</v>
-      </c>
-      <c r="C46" t="s">
-        <v>42</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -1599,13 +1602,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
         <v>40</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>41</v>
-      </c>
-      <c r="C47" t="s">
-        <v>42</v>
       </c>
       <c r="D47">
         <v>4</v>
@@ -1619,19 +1622,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
         <v>40</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>41</v>
-      </c>
-      <c r="C48" t="s">
-        <v>42</v>
       </c>
       <c r="D48">
         <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -1639,19 +1642,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" t="s">
         <v>40</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>41</v>
-      </c>
-      <c r="C49" t="s">
-        <v>42</v>
       </c>
       <c r="D49">
         <v>6</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1659,19 +1662,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" t="s">
         <v>40</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>41</v>
-      </c>
-      <c r="C50" t="s">
-        <v>42</v>
       </c>
       <c r="D50">
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -1679,19 +1682,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" t="s">
         <v>40</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>41</v>
-      </c>
-      <c r="C51" t="s">
-        <v>42</v>
       </c>
       <c r="D51">
         <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -1699,19 +1702,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" t="s">
         <v>40</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>41</v>
-      </c>
-      <c r="C52" t="s">
-        <v>42</v>
       </c>
       <c r="D52">
         <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -1719,19 +1722,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" t="s">
         <v>40</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>41</v>
-      </c>
-      <c r="C53" t="s">
-        <v>42</v>
       </c>
       <c r="D53">
         <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -1739,13 +1742,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" t="s">
         <v>49</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>50</v>
-      </c>
-      <c r="C54" t="s">
-        <v>51</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -1759,13 +1762,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" t="s">
         <v>49</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>50</v>
-      </c>
-      <c r="C55" t="s">
-        <v>51</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -1779,13 +1782,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" t="s">
         <v>49</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>50</v>
-      </c>
-      <c r="C56" t="s">
-        <v>51</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -1799,13 +1802,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" t="s">
         <v>49</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>50</v>
-      </c>
-      <c r="C57" t="s">
-        <v>51</v>
       </c>
       <c r="D57">
         <v>4</v>
@@ -1819,19 +1822,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" t="s">
         <v>49</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>50</v>
-      </c>
-      <c r="C58" t="s">
-        <v>51</v>
       </c>
       <c r="D58">
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -1839,19 +1842,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" t="s">
         <v>49</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>50</v>
-      </c>
-      <c r="C59" t="s">
-        <v>51</v>
       </c>
       <c r="D59">
         <v>6</v>
       </c>
       <c r="E59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1859,19 +1862,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" t="s">
         <v>49</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>50</v>
-      </c>
-      <c r="C60" t="s">
-        <v>51</v>
       </c>
       <c r="D60">
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -1879,19 +1882,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" t="s">
         <v>49</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>50</v>
-      </c>
-      <c r="C61" t="s">
-        <v>51</v>
       </c>
       <c r="D61">
         <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -1899,19 +1902,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" t="s">
         <v>49</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>50</v>
-      </c>
-      <c r="C62" t="s">
-        <v>51</v>
       </c>
       <c r="D62">
         <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -1919,19 +1922,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" t="s">
         <v>49</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>50</v>
-      </c>
-      <c r="C63" t="s">
-        <v>51</v>
       </c>
       <c r="D63">
         <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -1939,13 +1942,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" t="s">
         <v>58</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>59</v>
-      </c>
-      <c r="C64" t="s">
-        <v>60</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -1959,13 +1962,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" t="s">
         <v>58</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>59</v>
-      </c>
-      <c r="C65" t="s">
-        <v>60</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -1979,13 +1982,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" t="s">
         <v>58</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>59</v>
-      </c>
-      <c r="C66" t="s">
-        <v>60</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -1999,13 +2002,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" t="s">
         <v>58</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>59</v>
-      </c>
-      <c r="C67" t="s">
-        <v>60</v>
       </c>
       <c r="D67">
         <v>4</v>
@@ -2019,19 +2022,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" t="s">
         <v>58</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>59</v>
-      </c>
-      <c r="C68" t="s">
-        <v>60</v>
       </c>
       <c r="D68">
         <v>5</v>
       </c>
       <c r="E68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2039,19 +2042,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" t="s">
         <v>58</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>59</v>
-      </c>
-      <c r="C69" t="s">
-        <v>60</v>
       </c>
       <c r="D69">
         <v>6</v>
       </c>
       <c r="E69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -2059,19 +2062,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" t="s">
         <v>58</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>59</v>
-      </c>
-      <c r="C70" t="s">
-        <v>60</v>
       </c>
       <c r="D70">
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -2079,13 +2082,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" t="s">
         <v>64</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>65</v>
-      </c>
-      <c r="C71" t="s">
-        <v>66</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -2099,13 +2102,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" t="s">
         <v>64</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>65</v>
-      </c>
-      <c r="C72" t="s">
-        <v>66</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -2119,13 +2122,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" t="s">
         <v>64</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>65</v>
-      </c>
-      <c r="C73" t="s">
-        <v>66</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -2139,13 +2142,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" t="s">
         <v>64</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>65</v>
-      </c>
-      <c r="C74" t="s">
-        <v>66</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -2159,19 +2162,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75" t="s">
         <v>64</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>65</v>
-      </c>
-      <c r="C75" t="s">
-        <v>66</v>
       </c>
       <c r="D75">
         <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -2179,19 +2182,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76" t="s">
         <v>64</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>65</v>
-      </c>
-      <c r="C76" t="s">
-        <v>66</v>
       </c>
       <c r="D76">
         <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2199,19 +2202,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>63</v>
+      </c>
+      <c r="B77" t="s">
         <v>64</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>65</v>
-      </c>
-      <c r="C77" t="s">
-        <v>66</v>
       </c>
       <c r="D77">
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -2219,19 +2222,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" t="s">
         <v>64</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>65</v>
-      </c>
-      <c r="C78" t="s">
-        <v>66</v>
       </c>
       <c r="D78">
         <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -2239,19 +2242,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>63</v>
+      </c>
+      <c r="B79" t="s">
         <v>64</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>65</v>
-      </c>
-      <c r="C79" t="s">
-        <v>66</v>
       </c>
       <c r="D79">
         <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -2259,19 +2262,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>63</v>
+      </c>
+      <c r="B80" t="s">
         <v>64</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>65</v>
-      </c>
-      <c r="C80" t="s">
-        <v>66</v>
       </c>
       <c r="D80">
         <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -2279,13 +2282,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>72</v>
+      </c>
+      <c r="B81" t="s">
         <v>73</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>74</v>
-      </c>
-      <c r="C81" t="s">
-        <v>75</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -2299,13 +2302,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82" t="s">
         <v>73</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>74</v>
-      </c>
-      <c r="C82" t="s">
-        <v>75</v>
       </c>
       <c r="D82">
         <v>2</v>
@@ -2319,13 +2322,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>72</v>
+      </c>
+      <c r="B83" t="s">
         <v>73</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>74</v>
-      </c>
-      <c r="C83" t="s">
-        <v>75</v>
       </c>
       <c r="D83">
         <v>3</v>
@@ -2339,13 +2342,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>72</v>
+      </c>
+      <c r="B84" t="s">
         <v>73</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>74</v>
-      </c>
-      <c r="C84" t="s">
-        <v>75</v>
       </c>
       <c r="D84">
         <v>4</v>
@@ -2359,19 +2362,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>72</v>
+      </c>
+      <c r="B85" t="s">
         <v>73</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>74</v>
-      </c>
-      <c r="C85" t="s">
-        <v>75</v>
       </c>
       <c r="D85">
         <v>5</v>
       </c>
       <c r="E85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -2379,19 +2382,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>72</v>
+      </c>
+      <c r="B86" t="s">
         <v>73</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>74</v>
-      </c>
-      <c r="C86" t="s">
-        <v>75</v>
       </c>
       <c r="D86">
         <v>6</v>
       </c>
       <c r="E86" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2399,19 +2402,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>72</v>
+      </c>
+      <c r="B87" t="s">
         <v>73</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>74</v>
-      </c>
-      <c r="C87" t="s">
-        <v>75</v>
       </c>
       <c r="D87">
         <v>7</v>
       </c>
       <c r="E87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -2419,19 +2422,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>72</v>
+      </c>
+      <c r="B88" t="s">
         <v>73</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>74</v>
-      </c>
-      <c r="C88" t="s">
-        <v>75</v>
       </c>
       <c r="D88">
         <v>8</v>
       </c>
       <c r="E88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -2439,19 +2442,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>72</v>
+      </c>
+      <c r="B89" t="s">
         <v>73</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>74</v>
-      </c>
-      <c r="C89" t="s">
-        <v>75</v>
       </c>
       <c r="D89">
         <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -2459,13 +2462,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>78</v>
+      </c>
+      <c r="B90" t="s">
         <v>79</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>80</v>
-      </c>
-      <c r="C90" t="s">
-        <v>81</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -2479,13 +2482,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>78</v>
+      </c>
+      <c r="B91" t="s">
         <v>79</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>80</v>
-      </c>
-      <c r="C91" t="s">
-        <v>81</v>
       </c>
       <c r="D91">
         <v>2</v>
@@ -2499,13 +2502,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>78</v>
+      </c>
+      <c r="B92" t="s">
         <v>79</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>80</v>
-      </c>
-      <c r="C92" t="s">
-        <v>81</v>
       </c>
       <c r="D92">
         <v>3</v>
@@ -2519,13 +2522,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>78</v>
+      </c>
+      <c r="B93" t="s">
         <v>79</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>80</v>
-      </c>
-      <c r="C93" t="s">
-        <v>81</v>
       </c>
       <c r="D93">
         <v>4</v>
@@ -2539,19 +2542,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>78</v>
+      </c>
+      <c r="B94" t="s">
         <v>79</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>80</v>
-      </c>
-      <c r="C94" t="s">
-        <v>81</v>
       </c>
       <c r="D94">
         <v>5</v>
       </c>
       <c r="E94" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -2559,19 +2562,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>78</v>
+      </c>
+      <c r="B95" t="s">
         <v>79</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>80</v>
-      </c>
-      <c r="C95" t="s">
-        <v>81</v>
       </c>
       <c r="D95">
         <v>6</v>
       </c>
       <c r="E95" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -2579,19 +2582,19 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>78</v>
+      </c>
+      <c r="B96" t="s">
         <v>79</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>80</v>
-      </c>
-      <c r="C96" t="s">
-        <v>81</v>
       </c>
       <c r="D96">
         <v>7</v>
       </c>
       <c r="E96" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -2599,19 +2602,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>78</v>
+      </c>
+      <c r="B97" t="s">
         <v>79</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>80</v>
-      </c>
-      <c r="C97" t="s">
-        <v>81</v>
       </c>
       <c r="D97">
         <v>8</v>
       </c>
       <c r="E97" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F97">
         <v>1</v>

--- a/public/template_afirmasi.xlsx
+++ b/public/template_afirmasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\apm-smk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DC4504-3DA5-4ADC-8560-31F360191D79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB3888D-6787-4D8C-9F41-B9472CD14D4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{6EDF0E48-1308-4AD9-988D-0816ECD04F51}"/>
   </bookViews>
@@ -309,10 +309,10 @@
     <t xml:space="preserve">Analisis bahan ajar </t>
   </si>
   <si>
-    <t>Analisis bahan ajar</t>
-  </si>
-  <si>
     <t>Contoh bahan ajar</t>
+  </si>
+  <si>
+    <t>Form penilaian untuk, proyek Base Learning, Dual System</t>
   </si>
 </sst>
 </file>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7094E313-59E2-4D2A-87BD-AA605FED7B89}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C26" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,7 +1434,7 @@
         <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1534,7 +1534,7 @@
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F43">
         <v>1</v>
